--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1574,6 +1574,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="20210731"/&gt;
     &lt;code value="840539006"/&gt;
     &lt;display value="Disease caused by Severe acute respiratory syndrome coronavirus 2 (disorder)"/&gt;
   &lt;/coding&gt;

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -822,6 +822,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-immunizations-uv-ips</t>
+  </si>
+  <si>
+    <t>napkon</t>
+  </si>
+  <si>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/covid-vaccination-codes</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.text</t>
@@ -1964,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7639,9 +7645,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7650,7 +7658,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7662,19 +7670,19 @@
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7699,13 +7707,11 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7723,13 +7729,13 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>96</v>
@@ -7741,10 +7747,10 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7753,9 +7759,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7763,13 +7769,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7778,18 +7784,20 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7837,10 +7845,10 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -7849,27 +7857,27 @@
         <v>96</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7877,31 +7885,31 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7951,10 +7959,10 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -7963,19 +7971,19 @@
         <v>96</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -7983,7 +7991,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7991,31 +7999,31 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8053,20 +8061,22 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -8075,37 +8085,35 @@
         <v>96</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>84</v>
@@ -8120,16 +8128,16 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8167,19 +8175,17 @@
         <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>84</v>
@@ -8194,26 +8200,28 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8225,24 +8233,26 @@
         <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -8291,10 +8301,10 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -8306,24 +8316,24 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8343,20 +8353,18 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -8405,7 +8413,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8423,13 +8431,13 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8437,7 +8445,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8457,19 +8465,19 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8495,13 +8503,13 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
@@ -8519,7 +8527,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8537,13 +8545,13 @@
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8551,7 +8559,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8574,16 +8582,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8609,13 +8617,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -8633,7 +8641,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8645,19 +8653,19 @@
         <v>96</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8665,7 +8673,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8688,16 +8696,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8747,7 +8755,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8759,27 +8767,27 @@
         <v>96</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8793,7 +8801,7 @@
         <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8802,16 +8810,16 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8861,7 +8869,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8873,27 +8881,27 @@
         <v>96</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8907,7 +8915,7 @@
         <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8916,15 +8924,17 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8973,7 +8983,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8985,27 +8995,27 @@
         <v>96</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>337</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9028,17 +9038,15 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>166</v>
+        <v>342</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -9063,13 +9071,13 @@
         <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -9087,7 +9095,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9105,21 +9113,21 @@
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9145,10 +9153,10 @@
         <v>166</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>177</v>
@@ -9180,10 +9188,10 @@
         <v>178</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>74</v>
@@ -9201,7 +9209,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9219,21 +9227,21 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9256,16 +9264,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>362</v>
+        <v>166</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>365</v>
+        <v>177</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9291,13 +9299,13 @@
         <v>74</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>74</v>
@@ -9315,7 +9323,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9327,27 +9335,27 @@
         <v>96</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>366</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>74</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9358,7 +9366,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -9367,18 +9375,20 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -9427,28 +9437,28 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9459,7 +9469,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9470,7 +9480,7 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>74</v>
@@ -9479,16 +9489,16 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>187</v>
+        <v>373</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9539,28 +9549,28 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>105</v>
+        <v>377</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9571,18 +9581,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
@@ -9594,17 +9604,15 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -9641,31 +9649,31 @@
         <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
@@ -9674,7 +9682,7 @@
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9685,11 +9693,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9702,26 +9710,24 @@
         <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>380</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9757,19 +9763,19 @@
         <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9801,41 +9807,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9859,13 +9867,13 @@
         <v>74</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>74</v>
@@ -9883,28 +9891,28 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9915,7 +9923,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9923,7 +9931,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>84</v>
@@ -9938,16 +9946,16 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>391</v>
+        <v>166</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9973,13 +9981,13 @@
         <v>74</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>74</v>
@@ -9997,10 +10005,10 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>84</v>
@@ -10009,19 +10017,19 @@
         <v>96</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10029,7 +10037,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10037,10 +10045,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -10052,16 +10060,16 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10111,39 +10119,39 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10151,31 +10159,31 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>166</v>
+        <v>401</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>177</v>
+        <v>404</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10201,11 +10209,13 @@
         <v>74</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -10223,7 +10233,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10235,16 +10245,16 @@
         <v>96</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>410</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10253,9 +10263,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10263,13 +10273,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10278,16 +10288,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10313,13 +10323,11 @@
         <v>74</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>74</v>
@@ -10337,7 +10345,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10349,16 +10357,16 @@
         <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10369,7 +10377,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10380,36 +10388,34 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P74" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10453,25 +10459,25 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>98</v>
@@ -10485,7 +10491,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10496,34 +10502,36 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>177</v>
+        <v>422</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>74</v>
       </c>
@@ -10543,13 +10551,13 @@
         <v>74</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>427</v>
+        <v>74</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>74</v>
@@ -10567,13 +10575,13 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>96</v>
@@ -10585,7 +10593,7 @@
         <v>74</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>172</v>
+        <v>424</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>98</v>
@@ -10599,7 +10607,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10622,15 +10630,17 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -10655,13 +10665,13 @@
         <v>74</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>74</v>
@@ -10679,7 +10689,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10691,13 +10701,13 @@
         <v>96</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>98</v>
@@ -10711,7 +10721,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10722,7 +10732,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>74</v>
@@ -10734,13 +10744,13 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>188</v>
+        <v>432</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10791,19 +10801,19 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>189</v>
+        <v>430</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>74</v>
@@ -10812,7 +10822,7 @@
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10823,18 +10833,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>74</v>
@@ -10846,17 +10856,15 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10893,31 +10901,31 @@
         <v>74</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>74</v>
@@ -10926,7 +10934,7 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10937,11 +10945,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10954,26 +10962,24 @@
         <v>74</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>380</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>74</v>
       </c>
@@ -11009,19 +11015,19 @@
         <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11053,41 +11059,43 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
       </c>
@@ -11135,25 +11143,25 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>98</v>
@@ -11167,7 +11175,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11190,16 +11198,16 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>442</v>
+        <v>228</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11249,7 +11257,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11267,7 +11275,7 @@
         <v>74</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>74</v>
+        <v>440</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>98</v>
@@ -11281,7 +11289,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11304,15 +11312,17 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -11361,7 +11371,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11379,7 +11389,7 @@
         <v>74</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>98</v>
@@ -11393,7 +11403,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11416,13 +11426,13 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11473,7 +11483,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11491,7 +11501,7 @@
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>98</v>
@@ -11505,7 +11515,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11516,7 +11526,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -11528,17 +11538,15 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>74</v>
@@ -11563,13 +11571,13 @@
         <v>74</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>74</v>
@@ -11587,13 +11595,13 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>96</v>
@@ -11605,7 +11613,7 @@
         <v>74</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>98</v>
@@ -11619,7 +11627,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11630,7 +11638,7 @@
         <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>74</v>
@@ -11645,10 +11653,10 @@
         <v>166</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>177</v>
@@ -11680,10 +11688,10 @@
         <v>178</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>74</v>
@@ -11701,13 +11709,13 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>96</v>
@@ -11719,7 +11727,7 @@
         <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>172</v>
+        <v>458</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>98</v>
@@ -11733,7 +11741,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11744,7 +11752,7 @@
         <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>74</v>
@@ -11756,16 +11764,16 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11791,13 +11799,13 @@
         <v>74</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>74</v>
@@ -11815,13 +11823,13 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>96</v>
@@ -11833,10 +11841,10 @@
         <v>74</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>466</v>
+        <v>172</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>467</v>
+        <v>98</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -11847,7 +11855,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11858,7 +11866,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>74</v>
@@ -11870,15 +11878,17 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11927,28 +11937,28 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>464</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>74</v>
+        <v>468</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>105</v>
+        <v>469</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>74</v>
@@ -11959,18 +11969,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>74</v>
@@ -11982,17 +11992,15 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>74</v>
@@ -12029,31 +12037,31 @@
         <v>74</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>74</v>
@@ -12062,7 +12070,7 @@
         <v>74</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>74</v>
@@ -12073,11 +12081,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12090,26 +12098,24 @@
         <v>74</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>380</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>74</v>
       </c>
@@ -12145,19 +12151,19 @@
         <v>74</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -12189,39 +12195,43 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12269,28 +12279,28 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12301,7 +12311,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12324,17 +12334,15 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>476</v>
+        <v>299</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -12383,7 +12391,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12395,16 +12403,16 @@
         <v>96</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>480</v>
+        <v>295</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12415,7 +12423,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12438,15 +12446,17 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -12495,7 +12505,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12507,16 +12517,16 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
@@ -12525,9 +12535,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12535,13 +12545,13 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -12550,13 +12560,13 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>370</v>
+        <v>241</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12607,13 +12617,13 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>96</v>
@@ -12625,10 +12635,10 @@
         <v>74</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>98</v>
+        <v>487</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>74</v>
@@ -12637,9 +12647,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12647,13 +12657,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12662,13 +12672,13 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>187</v>
+        <v>489</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>188</v>
+        <v>490</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12719,19 +12729,19 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>74</v>
@@ -12740,7 +12750,7 @@
         <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>74</v>
@@ -12751,18 +12761,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>74</v>
@@ -12774,17 +12784,15 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>74</v>
@@ -12821,31 +12829,31 @@
         <v>74</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>74</v>
@@ -12854,7 +12862,7 @@
         <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -12865,11 +12873,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12882,26 +12890,24 @@
         <v>74</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>380</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N96" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>74</v>
       </c>
@@ -12937,19 +12943,19 @@
         <v>74</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12981,41 +12987,43 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>493</v>
+        <v>382</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>74</v>
       </c>
@@ -13063,19 +13071,19 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>492</v>
+        <v>384</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>74</v>
@@ -13095,7 +13103,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13118,16 +13126,16 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>326</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L98" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="M98" t="s" s="2">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13177,7 +13185,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13189,7 +13197,7 @@
         <v>96</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>74</v>
@@ -13207,9 +13215,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13217,13 +13225,13 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>74</v>
@@ -13232,16 +13240,16 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="M99" t="s" s="2">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13252,7 +13260,7 @@
         <v>74</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>501</v>
+        <v>74</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>74</v>
@@ -13267,13 +13275,13 @@
         <v>74</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>502</v>
+        <v>74</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>503</v>
+        <v>74</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>74</v>
@@ -13291,25 +13299,25 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>98</v>
@@ -13321,9 +13329,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13331,13 +13339,13 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>74</v>
@@ -13346,15 +13354,17 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>187</v>
+        <v>501</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>74</v>
@@ -13364,7 +13374,7 @@
         <v>74</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>74</v>
+        <v>503</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>74</v>
@@ -13379,13 +13389,13 @@
         <v>74</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>74</v>
+        <v>504</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>74</v>
@@ -13403,28 +13413,28 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>189</v>
+        <v>500</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>74</v>
@@ -13435,18 +13445,18 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>74</v>
@@ -13458,17 +13468,15 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>74</v>
@@ -13505,31 +13513,31 @@
         <v>74</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>74</v>
@@ -13538,7 +13546,7 @@
         <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>74</v>
@@ -13547,45 +13555,43 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>74</v>
       </c>
@@ -13621,19 +13627,19 @@
         <v>74</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13645,16 +13651,16 @@
         <v>96</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>74</v>
@@ -13663,9 +13669,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13673,31 +13679,35 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>74</v>
       </c>
@@ -13745,28 +13755,28 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>74</v>
@@ -13777,18 +13787,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>74</v>
@@ -13800,17 +13810,15 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>74</v>
@@ -13847,31 +13855,31 @@
         <v>74</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>74</v>
@@ -13880,7 +13888,7 @@
         <v>74</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>74</v>
@@ -13891,18 +13899,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>74</v>
@@ -13911,23 +13919,21 @@
         <v>74</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>74</v>
       </c>
@@ -13963,40 +13969,40 @@
         <v>74</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>74</v>
@@ -14007,7 +14013,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14015,7 +14021,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>84</v>
@@ -14030,18 +14036,20 @@
         <v>85</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>74</v>
       </c>
@@ -14089,7 +14097,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14107,10 +14115,10 @@
         <v>74</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>74</v>
@@ -14121,7 +14129,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14129,7 +14137,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>84</v>
@@ -14144,20 +14152,18 @@
         <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>74</v>
       </c>
@@ -14205,7 +14211,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -14223,10 +14229,10 @@
         <v>74</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>74</v>
@@ -14237,7 +14243,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14245,7 +14251,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>84</v>
@@ -14260,19 +14266,19 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>228</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>74</v>
@@ -14321,7 +14327,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -14339,10 +14345,10 @@
         <v>74</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>74</v>
@@ -14353,7 +14359,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14376,19 +14382,19 @@
         <v>85</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>74</v>
@@ -14437,7 +14443,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14455,10 +14461,10 @@
         <v>74</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>74</v>
@@ -14469,7 +14475,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14492,19 +14498,19 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>74</v>
@@ -14553,7 +14559,7 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -14571,10 +14577,10 @@
         <v>74</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>74</v>
@@ -14585,7 +14591,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14593,7 +14599,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>84</v>
@@ -14605,21 +14611,23 @@
         <v>74</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>517</v>
+        <v>262</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>518</v>
+        <v>263</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>74</v>
       </c>
@@ -14655,20 +14663,22 @@
         <v>74</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>520</v>
+        <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>515</v>
+        <v>266</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>84</v>
@@ -14683,10 +14693,10 @@
         <v>74</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>74</v>
@@ -14697,11 +14707,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>74</v>
       </c>
@@ -14722,16 +14730,16 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14769,19 +14777,17 @@
         <v>74</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AB112" s="2"/>
       <c r="AC112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>84</v>
@@ -14813,15 +14819,17 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B113" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="C113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>84</v>
@@ -14836,16 +14844,16 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14895,10 +14903,10 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>84</v>
@@ -14925,8 +14933,122 @@
         <v>74</v>
       </c>
     </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN113">
+  <autoFilter ref="A1:AN114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14936,7 +15058,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid-vaccination.xlsx
+++ b/StructureDefinition-covid-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:09:33+00:00</t>
+    <t>2021-10-19T21:35:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
